--- a/Zoosell bug report.xlsx
+++ b/Zoosell bug report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25809"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B933F1A9-D3D6-4BD4-AF87-D9FAC57CBF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57F79DF4-B90C-47F7-A1D2-14A1ABC6F832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,15 +28,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Визуальный баг добавления в "Избранное"</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Приоритет:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF8EA9DB"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Low</t>
+    </r>
+  </si>
+  <si>
     <t>Среда:</t>
   </si>
   <si>
-    <t>Windows 10,
+    <t>Windows 10
 Chrome v.106</t>
   </si>
   <si>
@@ -74,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -113,6 +134,18 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF8EA9DB"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -122,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -171,86 +204,56 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -554,10 +557,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -567,158 +570,190 @@
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" ht="18" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="12.75">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" ht="12.75">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="12.75">
       <c r="A4" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="12.75">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="12.75">
+      <c r="A5" s="16"/>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="24">
-      <c r="A7" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="24">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="24">
-      <c r="A8" s="9" t="s">
+      <c r="C7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="24">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="15"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" ht="12.75">
+      <c r="A11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:E2"/>
     <mergeCell ref="A12:A27"/>
     <mergeCell ref="B12:B27"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A1:C2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7" r:id="rId1" xr:uid="{59C639C0-3045-42EF-A4CB-03E5B7915524}"/>

--- a/Zoosell bug report.xlsx
+++ b/Zoosell bug report.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27210"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57F79DF4-B90C-47F7-A1D2-14A1ABC6F832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{553E3C4C-6C46-44F2-9CE4-2958D8F86A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,6 +12,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Визуальный баг добавления в "Избранное"</t>
   </si>
@@ -37,7 +40,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Приоритет:
@@ -47,13 +50,18 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF8EA9DB"/>
+        <color rgb="FF6D9EEB"/>
         <rFont val="Arial"/>
       </rPr>
       <t>Low</t>
     </r>
   </si>
   <si>
+    <t>Предусловия: Пользователь должен быть авторизован
+Логин - vobogit971@botsoko.com
+Пароль - test_123</t>
+  </si>
+  <si>
     <t>Среда:</t>
   </si>
   <si>
@@ -70,13 +78,49 @@
     <t>AR</t>
   </si>
   <si>
-    <t>1. Выбрать любой товар (пример)</t>
+    <r>
+      <t>1. Выбрать любой товар (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>пример</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>После добавления товара в корзину он пропадает из избранного и на его странице перестает отображаться маркер “В избранном”</t>
   </si>
   <si>
-    <t>После добавления товара в корзину он пропадает из избранного, но маркер на странице товара остается</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">После добавления товара в корзину он пропадает из избранного, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>но маркер на странице товара остается</t>
+    </r>
   </si>
   <si>
     <t>2. Нажать “Добавить в избранное”</t>
@@ -89,13 +133,42 @@
   </si>
   <si>
     <t>Вложения</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">HAR-файл </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>с запросами</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> на добавление в избранное, а затем в корзину</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -105,6 +178,13 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -130,20 +210,48 @@
     <font>
       <u/>
       <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF8EA9DB"/>
+      <color rgb="FF6D9EEB"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -155,7 +263,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -204,59 +312,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -274,85 +452,97 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1876425" cy="3181350"/>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1857375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image2.png">
+        <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7DE37D-A3DD-EFB3-E078-1B266C933B34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2200275"/>
-          <a:ext cx="1876425" cy="3181350"/>
+          <a:off x="104775" y="2600325"/>
+          <a:ext cx="1752600" cy="3038475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1638300" cy="3171825"/>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image1.png">
+        <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BB4A19B-AE81-0A01-8AA8-FE89CDD9FA7A}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DB7DE37D-A3DD-EFB3-E078-1B266C933B34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1924050" y="2200275"/>
-          <a:ext cx="1638300" cy="3171825"/>
+          <a:off x="2000250" y="2657475"/>
+          <a:ext cx="1543050" cy="3038475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -557,10 +747,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -570,195 +760,192 @@
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="12.75">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="12.75">
-      <c r="A4" s="6" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="12.75">
-      <c r="A5" s="16"/>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="24">
-      <c r="A7" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="24">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" ht="12.75">
-      <c r="A11" s="10" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="15"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="16"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
+  <mergeCells count="11">
+    <mergeCell ref="A14:A29"/>
+    <mergeCell ref="B14:B29"/>
+    <mergeCell ref="A30:B31"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:E2"/>
-    <mergeCell ref="A12:A27"/>
-    <mergeCell ref="B12:B27"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A3:B5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{59C639C0-3045-42EF-A4CB-03E5B7915524}"/>
+    <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A30" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>